--- a/Covid_264_cc.xlsx
+++ b/Covid_264_cc.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haile/Documents/GitHub/R_UF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6816296A-AE8D-ED4D-A3AC-DF19B535BCEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCAD9C9B-49C6-EA4C-AF91-090F8310FB4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="500" windowWidth="22220" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="400" yWindow="500" windowWidth="22220" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Covid_29019" sheetId="1" r:id="rId1"/>
+    <sheet name="Covid_264" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -884,7 +884,7 @@
   <dimension ref="A1:B894"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A897" sqref="A897"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
